--- a/ZZZ - Project/Issues In Auto Finder ( Sep 2024 ).xlsx
+++ b/ZZZ - Project/Issues In Auto Finder ( Sep 2024 ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9480"/>
+    <workbookView windowWidth="23145" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Issues Found In Auto finder - ( Sep 17, 2024 - Rehmat )</t>
   </si>
@@ -59,7 +59,115 @@
     <t xml:space="preserve">1 - </t>
   </si>
   <si>
-    <t>Car Inspection Service</t>
+    <t>Car Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - </t>
+  </si>
+  <si>
+    <t>Bike Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - </t>
+  </si>
+  <si>
+    <t>Auto Part Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - </t>
+  </si>
+  <si>
+    <t>Car Ad Post ( Free Ad )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - </t>
+  </si>
+  <si>
+    <t>Bike Ad Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - </t>
+  </si>
+  <si>
+    <t>Auto Part Ad Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - </t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 - </t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 - </t>
+  </si>
+  <si>
+    <t>Car Ad Post ( Premium Ad )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">List it For You </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car Inspection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 - </t>
+  </si>
+  <si>
+    <t>Buy Car For Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 - </t>
+  </si>
+  <si>
+    <t>Rent Your Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 - </t>
+  </si>
+  <si>
+    <t>Car Dealer Packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 - </t>
+  </si>
+  <si>
+    <t>Bike Dealer Packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - </t>
+  </si>
+  <si>
+    <t>New Cars ( Find &amp; Single Car Detail )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 - </t>
+  </si>
+  <si>
+    <t>New Cars ( Car Comparison )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - </t>
+  </si>
+  <si>
+    <t>My Saved Ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 - </t>
+  </si>
+  <si>
+    <t>Data Entry</t>
   </si>
 </sst>
 </file>
@@ -479,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -575,84 +683,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -670,37 +700,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,7 +825,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,34 +837,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,35 +987,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,17 +1005,8 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1095,6 +1067,7573 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>420370</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="3380105"/>
+          <a:ext cx="229870" cy="217170"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>442595</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4908550" y="3691255"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4911725" y="4008755"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Multiply 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="2380615"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>307975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Multiply 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4822825" y="2717165"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Multiply 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4232275" y="2383790"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>301625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Multiply 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4235450" y="2710815"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414020</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879975" y="3078480"/>
+          <a:ext cx="229870" cy="217170"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398145</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Oval 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="3072130"/>
+          <a:ext cx="229870" cy="217170"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>401320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Oval 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="3389630"/>
+          <a:ext cx="229870" cy="217170"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398145</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Oval 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="3703955"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>420370</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Oval 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="4002405"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>458470</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="4319905"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4918075" y="4618355"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>455295</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>282575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4921250" y="4945380"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>339725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Multiply 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4835525" y="5301615"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>420370</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="5675630"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>414020</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>288925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4279900" y="5688330"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Oval 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5492750" y="5691505"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Multiply 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="5987415"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>339725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Multiply 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5464175" y="4933315"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>410845</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="4967605"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>433070</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Oval 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4899025" y="7399655"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398145</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Oval 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="7393305"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Oval 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4911725" y="7736205"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>401320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>293370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Oval 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="7737475"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398145</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Oval 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264025" y="5323205"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>407670</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>282575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Oval 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4273550" y="6024880"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>410845</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Oval 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="6361430"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Multiply 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4851400" y="6314440"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>407670</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>263525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Oval 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4273550" y="4316730"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>391795</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Oval 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="4615180"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Multiply 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4197350" y="8073390"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Multiply 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="8086090"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>339725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Multiply 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4206875" y="6698615"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Multiply 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="6663690"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>335915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>288925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Multiply 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4851400" y="6990715"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Multiply 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4235450" y="7031990"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Multiply 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="5295265"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>327025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Multiply 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5441950" y="6000115"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Multiply 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5464175" y="6670040"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Multiply 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="7044690"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Multiply 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5432425" y="7378065"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>423545</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>269875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Oval 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5489575" y="4323080"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>263525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Oval 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5492750" y="4621530"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>410845</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Oval 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="8479155"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>339090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Multiply 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5473700" y="6308090"/>
+          <a:ext cx="323850" cy="295910"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="E30000"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="760303"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1355,10 +8894,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:T10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1427,50 +8966,53 @@
         <v>2</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="M7" s="24" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="M7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="13:20">
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
+    <row r="8" spans="13:21">
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="13:20">
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
+    <row r="9" spans="13:21">
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
     </row>
-    <row r="10" ht="51" customHeight="1" spans="1:20">
+    <row r="10" ht="51" customHeight="1" spans="1:21">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1488,17 +9030,18 @@
       <c r="I10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:10">
       <c r="A11" s="9" t="s">
@@ -1512,228 +9055,300 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" ht="26" customHeight="1" spans="1:10">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:10">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:10">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:10">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:10">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" ht="24" customHeight="1" spans="1:10">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" ht="24" customHeight="1" spans="1:10">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
-    <row r="19" ht="22" customHeight="1" spans="1:10">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
+    <row r="19" ht="29" customHeight="1" spans="1:10">
+      <c r="A19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
-    <row r="20" ht="24" customHeight="1" spans="1:10">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
+    <row r="20" ht="29" customHeight="1" spans="1:10">
+      <c r="A20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="26"/>
+    <row r="21" ht="27" customHeight="1" spans="1:10">
+      <c r="A21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="27"/>
+    <row r="22" ht="27" customHeight="1" spans="1:10">
+      <c r="A22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="27"/>
+    <row r="23" ht="27" customHeight="1" spans="1:10">
+      <c r="A23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="27"/>
+    <row r="24" ht="27" customHeight="1" spans="1:10">
+      <c r="A24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="27"/>
+    <row r="25" ht="29" customHeight="1" spans="1:10">
+      <c r="A25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="27"/>
+    <row r="26" ht="24" customHeight="1" spans="1:10">
+      <c r="A26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="27"/>
+    <row r="27" ht="29" customHeight="1" spans="1:10">
+      <c r="A27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="27"/>
+    <row r="28" ht="30" customHeight="1" spans="1:10">
+      <c r="A28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="28"/>
+    <row r="29" ht="27" customHeight="1" spans="1:10">
+      <c r="A29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="26">
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
@@ -1745,15 +9360,25 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="M7:T10"/>
+    <mergeCell ref="M7:U10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ZZZ - Project/Issues In Auto Finder ( Sep 2024 ).xlsx
+++ b/ZZZ - Project/Issues In Auto Finder ( Sep 2024 ).xlsx
@@ -1952,169 +1952,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>301625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Multiply 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4235450" y="2710815"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -3420,169 +3257,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>339725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Multiply 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4835525" y="5301615"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
@@ -4071,332 +3745,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>18415</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Multiply 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829175" y="5987415"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>339725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Multiply 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5464175" y="4933315"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -5701,169 +5049,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>298450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Multiply 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4851400" y="6314440"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -6190,1636 +5375,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Multiply 42"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4197350" y="8073390"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Multiply 43"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4838700" y="8086090"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>339725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Multiply 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4206875" y="6698615"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>8890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Multiply 45"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4857750" y="6663690"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>335915</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>288925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Multiply 46"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4851400" y="6990715"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Multiply 47"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4235450" y="7031990"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>37465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Multiply 48"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5438775" y="5295265"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>31115</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>327025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Multiply 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5441950" y="6000115"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>311150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Multiply 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5464175" y="6670040"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Multiply 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5438775" y="7044690"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>136525</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -8472,37 +6027,2482 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>339090</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>397510</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Multiply 56"/>
+        <xdr:cNvPr id="20" name="Oval 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5473700" y="6308090"/>
-          <a:ext cx="323850" cy="295910"/>
+          <a:off x="4263390" y="8101965"/>
+          <a:ext cx="229870" cy="226695"/>
         </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
+              <a:srgbClr val="14CD68"/>
             </a:gs>
             <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199390</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>429260</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>309245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895215" y="8121650"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177165</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>407035</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Oval 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4272915" y="6688455"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5516880" y="6720205"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>268605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Oval 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4869180" y="6696710"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>417195</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>280035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Oval 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4883150" y="7051040"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382270</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>273685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Oval 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="7044690"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>300355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Oval 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5501005" y="7071360"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>275590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Oval 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4888865" y="6017895"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176530</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>282575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Oval 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5472430" y="6024880"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>410845</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>271145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Oval 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="4933950"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402590</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>278130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Oval 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4868545" y="6363335"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>410210</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>273685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Oval 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476240" y="6358890"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189230</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>267970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Oval 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5485130" y="5299075"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>176530</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>273685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Oval 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4272280" y="2761615"/>
+          <a:ext cx="229870" cy="217170"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>37465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>264160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Oval 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4869180" y="5295265"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
             </a:gs>
           </a:gsLst>
           <a:lin scaled="0"/>
@@ -8897,7 +8897,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/ZZZ - Project/Issues In Auto Finder ( Sep 2024 ).xlsx
+++ b/ZZZ - Project/Issues In Auto Finder ( Sep 2024 ).xlsx
@@ -1563,396 +1563,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>18415</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Multiply 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829175" y="2380615"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>307975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Multiply 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4822825" y="2717165"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>21590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Multiply 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4232275" y="2383790"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>43180</xdr:rowOff>
@@ -5376,169 +4986,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>460375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Multiply 52"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5432425" y="7378065"/>
-          <a:ext cx="323850" cy="295910"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E30000"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="760303"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="0"/>
-        </a:gradFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>43180</xdr:rowOff>
@@ -8492,6 +7939,658 @@
         <a:xfrm>
           <a:off x="4869180" y="5295265"/>
           <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176530</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>285115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5472430" y="7424420"/>
+          <a:ext cx="229870" cy="226695"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>184785</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414655</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>268605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4880610" y="2756535"/>
+          <a:ext cx="229870" cy="217170"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>156845</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>386715</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Oval 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4852670" y="2421255"/>
+          <a:ext cx="229870" cy="217170"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="14CD68"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="0B6E38"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="0"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>188595</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>418465</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>272415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Oval 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4284345" y="2417445"/>
+          <a:ext cx="229870" cy="217170"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8897,7 +8996,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
